--- a/KATO/Template/H0210_MitsumorishoPrint.xlsx
+++ b/KATO/Template/H0210_MitsumorishoPrint.xlsx
@@ -539,18 +539,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -568,18 +580,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,7 +887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -916,24 +918,24 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.15">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
     </row>
     <row r="5" spans="1:16" ht="12" x14ac:dyDescent="0.15">
       <c r="M5" s="3" t="s">
@@ -945,56 +947,56 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="25" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="23"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
     </row>
     <row r="7" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="22"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
     </row>
     <row r="9" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1004,34 +1006,34 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="26"/>
       <c r="D12" s="21" t="s">
         <v>16</v>
@@ -1064,12 +1066,12 @@
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="24"/>
       <c r="F14" s="14"/>
       <c r="H14" s="5" t="s">
@@ -1102,12 +1104,12 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="24"/>
       <c r="F16" s="14"/>
     </row>
@@ -1130,12 +1132,12 @@
       <c r="P17" s="14"/>
     </row>
     <row r="18" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="30"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1164,12 +1166,12 @@
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="24"/>
       <c r="F20" s="14"/>
       <c r="I20" s="10"/>
@@ -1206,38 +1208,38 @@
     </row>
     <row r="23" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35" t="s">
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35" t="s">
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35" t="s">
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
@@ -1247,15 +1249,15 @@
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
@@ -1265,15 +1267,15 @@
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
       <c r="M26" s="34"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
@@ -1283,15 +1285,15 @@
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
@@ -1301,15 +1303,15 @@
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
@@ -1319,15 +1321,15 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
@@ -1337,15 +1339,15 @@
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
@@ -1355,15 +1357,15 @@
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
@@ -1373,15 +1375,15 @@
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="34"/>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
@@ -1391,15 +1393,15 @@
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
@@ -1409,15 +1411,15 @@
       <c r="K34" s="34"/>
       <c r="L34" s="34"/>
       <c r="M34" s="34"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="34"/>
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
@@ -1427,15 +1429,15 @@
       <c r="K35" s="34"/>
       <c r="L35" s="34"/>
       <c r="M35" s="34"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="34"/>
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
@@ -1445,15 +1447,15 @@
       <c r="K36" s="34"/>
       <c r="L36" s="34"/>
       <c r="M36" s="34"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="34"/>
       <c r="F37" s="34"/>
       <c r="G37" s="34"/>
@@ -1463,15 +1465,15 @@
       <c r="K37" s="34"/>
       <c r="L37" s="34"/>
       <c r="M37" s="34"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="34"/>
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
@@ -1481,15 +1483,15 @@
       <c r="K38" s="34"/>
       <c r="L38" s="34"/>
       <c r="M38" s="34"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="34"/>
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
@@ -1499,15 +1501,15 @@
       <c r="K39" s="34"/>
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="34"/>
       <c r="F40" s="34"/>
       <c r="G40" s="34"/>
@@ -1517,15 +1519,15 @@
       <c r="K40" s="34"/>
       <c r="L40" s="34"/>
       <c r="M40" s="34"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="34"/>
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
@@ -1535,15 +1537,15 @@
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
@@ -1553,15 +1555,15 @@
       <c r="K42" s="34"/>
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
@@ -1571,15 +1573,15 @@
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
     </row>
     <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -1589,15 +1591,15 @@
       <c r="K44" s="34"/>
       <c r="L44" s="34"/>
       <c r="M44" s="34"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
       <c r="G45" s="34"/>
@@ -1607,15 +1609,15 @@
       <c r="K45" s="34"/>
       <c r="L45" s="34"/>
       <c r="M45" s="34"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="45"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="34"/>
       <c r="F46" s="34"/>
       <c r="G46" s="34"/>
@@ -1625,15 +1627,15 @@
       <c r="K46" s="34"/>
       <c r="L46" s="34"/>
       <c r="M46" s="34"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="34"/>
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
@@ -1643,15 +1645,15 @@
       <c r="K47" s="34"/>
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="34"/>
       <c r="F48" s="34"/>
       <c r="G48" s="34"/>
@@ -1661,15 +1663,15 @@
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="34"/>
       <c r="F49" s="34"/>
       <c r="G49" s="34"/>
@@ -1679,15 +1681,15 @@
       <c r="K49" s="34"/>
       <c r="L49" s="34"/>
       <c r="M49" s="34"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="45"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="34"/>
       <c r="F50" s="34"/>
       <c r="G50" s="34"/>
@@ -1697,15 +1699,15 @@
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
       <c r="M50" s="34"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
     </row>
     <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="34"/>
       <c r="F51" s="34"/>
       <c r="G51" s="34"/>
@@ -1715,15 +1717,15 @@
       <c r="K51" s="34"/>
       <c r="L51" s="34"/>
       <c r="M51" s="34"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="34"/>
       <c r="F52" s="34"/>
       <c r="G52" s="34"/>
@@ -1733,15 +1735,15 @@
       <c r="K52" s="34"/>
       <c r="L52" s="34"/>
       <c r="M52" s="34"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="34"/>
       <c r="F53" s="34"/>
       <c r="G53" s="34"/>
@@ -1751,15 +1753,15 @@
       <c r="K53" s="34"/>
       <c r="L53" s="34"/>
       <c r="M53" s="34"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="34"/>
       <c r="F54" s="34"/>
       <c r="G54" s="34"/>
@@ -1769,9 +1771,9 @@
       <c r="K54" s="34"/>
       <c r="L54" s="34"/>
       <c r="M54" s="34"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="45"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
     </row>
     <row r="55" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P55" s="20"/>
@@ -1783,6 +1785,152 @@
     </row>
   </sheetData>
   <mergeCells count="170">
+    <mergeCell ref="H8:O11"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
     <mergeCell ref="N30:P30"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="H27:J27"/>
@@ -1807,152 +1955,6 @@
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="K29:M29"/>
     <mergeCell ref="N29:P29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G8:O11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1996,38 +1998,38 @@
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35" t="s">
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35" t="s">
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35" t="s">
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -2037,15 +2039,15 @@
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -2055,15 +2057,15 @@
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -2073,15 +2075,15 @@
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
@@ -2091,15 +2093,15 @@
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -2109,15 +2111,15 @@
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -2127,15 +2129,15 @@
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -2145,15 +2147,15 @@
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
@@ -2163,15 +2165,15 @@
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
@@ -2181,15 +2183,15 @@
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
@@ -2199,15 +2201,15 @@
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
@@ -2217,15 +2219,15 @@
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
@@ -2235,15 +2237,15 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
@@ -2253,15 +2255,15 @@
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
@@ -2271,15 +2273,15 @@
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
@@ -2289,15 +2291,15 @@
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
@@ -2307,15 +2309,15 @@
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
@@ -2325,15 +2327,15 @@
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
@@ -2343,15 +2345,15 @@
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
@@ -2361,15 +2363,15 @@
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
@@ -2379,15 +2381,15 @@
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
       <c r="M26" s="34"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
@@ -2397,15 +2399,15 @@
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
@@ -2415,15 +2417,15 @@
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
@@ -2433,15 +2435,15 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
@@ -2451,15 +2453,15 @@
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
@@ -2469,15 +2471,15 @@
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
@@ -2487,15 +2489,15 @@
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="34"/>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
@@ -2505,15 +2507,15 @@
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
@@ -2523,15 +2525,15 @@
       <c r="K34" s="34"/>
       <c r="L34" s="34"/>
       <c r="M34" s="34"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="34"/>
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
@@ -2541,15 +2543,15 @@
       <c r="K35" s="34"/>
       <c r="L35" s="34"/>
       <c r="M35" s="34"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="34"/>
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
@@ -2559,15 +2561,15 @@
       <c r="K36" s="34"/>
       <c r="L36" s="34"/>
       <c r="M36" s="34"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="34"/>
       <c r="F37" s="34"/>
       <c r="G37" s="34"/>
@@ -2577,15 +2579,15 @@
       <c r="K37" s="34"/>
       <c r="L37" s="34"/>
       <c r="M37" s="34"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="34"/>
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
@@ -2595,15 +2597,15 @@
       <c r="K38" s="34"/>
       <c r="L38" s="34"/>
       <c r="M38" s="34"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="34"/>
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
@@ -2613,15 +2615,15 @@
       <c r="K39" s="34"/>
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="34"/>
       <c r="F40" s="34"/>
       <c r="G40" s="34"/>
@@ -2631,15 +2633,15 @@
       <c r="K40" s="34"/>
       <c r="L40" s="34"/>
       <c r="M40" s="34"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="34"/>
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
@@ -2649,15 +2651,15 @@
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
@@ -2667,15 +2669,15 @@
       <c r="K42" s="34"/>
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
@@ -2685,15 +2687,15 @@
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
     </row>
     <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -2703,15 +2705,15 @@
       <c r="K44" s="34"/>
       <c r="L44" s="34"/>
       <c r="M44" s="34"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
       <c r="G45" s="34"/>
@@ -2721,15 +2723,15 @@
       <c r="K45" s="34"/>
       <c r="L45" s="34"/>
       <c r="M45" s="34"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="45"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="34"/>
       <c r="F46" s="34"/>
       <c r="G46" s="34"/>
@@ -2739,15 +2741,15 @@
       <c r="K46" s="34"/>
       <c r="L46" s="34"/>
       <c r="M46" s="34"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="34"/>
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
@@ -2757,15 +2759,15 @@
       <c r="K47" s="34"/>
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="34"/>
       <c r="F48" s="34"/>
       <c r="G48" s="34"/>
@@ -2775,15 +2777,15 @@
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="34"/>
       <c r="F49" s="34"/>
       <c r="G49" s="34"/>
@@ -2793,15 +2795,15 @@
       <c r="K49" s="34"/>
       <c r="L49" s="34"/>
       <c r="M49" s="34"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="45"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="34"/>
       <c r="F50" s="34"/>
       <c r="G50" s="34"/>
@@ -2811,15 +2813,15 @@
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
       <c r="M50" s="34"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
     </row>
     <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="34"/>
       <c r="F51" s="34"/>
       <c r="G51" s="34"/>
@@ -2829,15 +2831,15 @@
       <c r="K51" s="34"/>
       <c r="L51" s="34"/>
       <c r="M51" s="34"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="34"/>
       <c r="F52" s="34"/>
       <c r="G52" s="34"/>
@@ -2847,15 +2849,15 @@
       <c r="K52" s="34"/>
       <c r="L52" s="34"/>
       <c r="M52" s="34"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="34"/>
       <c r="F53" s="34"/>
       <c r="G53" s="34"/>
@@ -2865,15 +2867,15 @@
       <c r="K53" s="34"/>
       <c r="L53" s="34"/>
       <c r="M53" s="34"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="34"/>
       <c r="F54" s="34"/>
       <c r="G54" s="34"/>
@@ -2883,9 +2885,9 @@
       <c r="K54" s="34"/>
       <c r="L54" s="34"/>
       <c r="M54" s="34"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="45"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
     </row>
     <row r="55" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P55" s="20"/>
@@ -2897,171 +2899,62 @@
     </row>
   </sheetData>
   <mergeCells count="245">
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:J19"/>
@@ -3086,62 +2979,171 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:P54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/KATO/Template/H0210_MitsumorishoPrint.xlsx
+++ b/KATO/Template/H0210_MitsumorishoPrint.xlsx
@@ -309,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -432,13 +432,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,68 +554,86 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P56"/>
+  <dimension ref="A2:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -896,25 +951,26 @@
     <col min="4" max="4" width="6.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="2.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="0.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="12" x14ac:dyDescent="0.15">
-      <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
+    <row r="2" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+      <c r="M2" s="3"/>
       <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.15">
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
@@ -933,17 +989,18 @@
       <c r="N3" s="35"/>
       <c r="O3" s="35"/>
       <c r="P3" s="35"/>
-    </row>
-    <row r="5" spans="1:16" ht="12" x14ac:dyDescent="0.15">
-      <c r="M5" s="3" t="s">
+      <c r="Q3" s="35"/>
+    </row>
+    <row r="5" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+      <c r="N5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29" t="s">
+      <c r="O5" s="28"/>
+      <c r="P5" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="45"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
@@ -952,10 +1009,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="23"/>
-      <c r="N6" s="34"/>
       <c r="O6" s="34"/>
-    </row>
-    <row r="7" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P6" s="34"/>
+    </row>
+    <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="46"/>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -963,9 +1020,9 @@
       <c r="E7" s="22"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G8" s="5"/>
-      <c r="H8" s="33"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
@@ -973,9 +1030,10 @@
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
       <c r="O8" s="33"/>
-    </row>
-    <row r="9" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="31" t="s">
+      <c r="P8" s="33"/>
+    </row>
+    <row r="9" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="41" t="s">
@@ -986,7 +1044,7 @@
       <c r="E9" s="41"/>
       <c r="F9" s="18"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="33"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
@@ -994,9 +1052,10 @@
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
       <c r="O9" s="33"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P9" s="33"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1004,7 +1063,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="33"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
@@ -1012,11 +1071,12 @@
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
       <c r="O10" s="33"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P10" s="33"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G11" s="5"/>
-      <c r="H11" s="33"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
@@ -1024,14 +1084,15 @@
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
       <c r="O11" s="33"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P11" s="33"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="44" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="44"/>
-      <c r="C12" s="26"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="21" t="s">
         <v>16</v>
       </c>
@@ -1048,21 +1109,23 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="H13" s="28" t="s">
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="39" t="s">
         <v>9</v>
       </c>
@@ -1082,16 +1145,17 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1099,8 +1163,9 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="39" t="s">
         <v>6</v>
       </c>
@@ -1110,7 +1175,7 @@
       <c r="E16" s="24"/>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1120,49 +1185,51 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="14"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
-    </row>
-    <row r="18" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
-      <c r="E18" s="30"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="14"/>
-    </row>
-    <row r="19" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I18" s="7"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="14"/>
+    </row>
+    <row r="19" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="14"/>
-    </row>
-    <row r="20" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="39" t="s">
         <v>10</v>
       </c>
@@ -1171,781 +1238,812 @@
       <c r="D20" s="42"/>
       <c r="E20" s="24"/>
       <c r="F20" s="14"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="14"/>
-    </row>
-    <row r="21" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="14"/>
-    </row>
-    <row r="22" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="14"/>
-    </row>
-    <row r="23" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38" t="s">
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="38"/>
       <c r="J24" s="38"/>
-      <c r="K24" s="38" t="s">
+      <c r="K24" s="38"/>
+      <c r="L24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="38"/>
       <c r="M24" s="38"/>
-      <c r="N24" s="38" t="s">
+      <c r="N24" s="38"/>
+      <c r="O24" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="38"/>
       <c r="P24" s="38"/>
-    </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q24" s="38"/>
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
-      <c r="N25" s="36"/>
+      <c r="N25" s="37"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
-    </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q25" s="36"/>
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52"/>
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
-      <c r="N26" s="36"/>
+      <c r="N26" s="37"/>
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
-    </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q26" s="36"/>
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="52"/>
       <c r="I27" s="37"/>
       <c r="J27" s="37"/>
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
-      <c r="N27" s="36"/>
+      <c r="N27" s="37"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
-    </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q27" s="36"/>
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
-      <c r="N28" s="36"/>
+      <c r="N28" s="37"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
-    </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q28" s="36"/>
+    </row>
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="37"/>
       <c r="J29" s="37"/>
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
       <c r="M29" s="37"/>
-      <c r="N29" s="36"/>
+      <c r="N29" s="37"/>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
-    </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q29" s="36"/>
+    </row>
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="52"/>
       <c r="I30" s="37"/>
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
       <c r="M30" s="37"/>
-      <c r="N30" s="36"/>
+      <c r="N30" s="37"/>
       <c r="O30" s="36"/>
       <c r="P30" s="36"/>
-    </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q30" s="36"/>
+    </row>
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="52"/>
       <c r="I31" s="37"/>
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
       <c r="M31" s="37"/>
-      <c r="N31" s="36"/>
+      <c r="N31" s="37"/>
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
-    </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q31" s="36"/>
+    </row>
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="52"/>
       <c r="I32" s="37"/>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
       <c r="M32" s="37"/>
-      <c r="N32" s="36"/>
+      <c r="N32" s="37"/>
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
-    </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q32" s="36"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="52"/>
       <c r="I33" s="37"/>
       <c r="J33" s="37"/>
       <c r="K33" s="37"/>
       <c r="L33" s="37"/>
       <c r="M33" s="37"/>
-      <c r="N33" s="36"/>
+      <c r="N33" s="37"/>
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
-    </row>
-    <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q33" s="36"/>
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="52"/>
       <c r="I34" s="37"/>
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
       <c r="M34" s="37"/>
-      <c r="N34" s="36"/>
+      <c r="N34" s="37"/>
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
-    </row>
-    <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q34" s="36"/>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="52"/>
       <c r="I35" s="37"/>
       <c r="J35" s="37"/>
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>
       <c r="M35" s="37"/>
-      <c r="N35" s="36"/>
+      <c r="N35" s="37"/>
       <c r="O35" s="36"/>
       <c r="P35" s="36"/>
-    </row>
-    <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q35" s="36"/>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="52"/>
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
       <c r="K36" s="37"/>
       <c r="L36" s="37"/>
       <c r="M36" s="37"/>
-      <c r="N36" s="36"/>
+      <c r="N36" s="37"/>
       <c r="O36" s="36"/>
       <c r="P36" s="36"/>
-    </row>
-    <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q36" s="36"/>
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="52"/>
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
       <c r="K37" s="37"/>
       <c r="L37" s="37"/>
       <c r="M37" s="37"/>
-      <c r="N37" s="36"/>
+      <c r="N37" s="37"/>
       <c r="O37" s="36"/>
       <c r="P37" s="36"/>
-    </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q37" s="36"/>
+    </row>
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="52"/>
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
       <c r="L38" s="37"/>
       <c r="M38" s="37"/>
-      <c r="N38" s="36"/>
+      <c r="N38" s="37"/>
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
-    </row>
-    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q38" s="36"/>
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="52"/>
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
       <c r="M39" s="37"/>
-      <c r="N39" s="36"/>
+      <c r="N39" s="37"/>
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
-    </row>
-    <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q39" s="36"/>
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="52"/>
       <c r="I40" s="37"/>
       <c r="J40" s="37"/>
       <c r="K40" s="37"/>
       <c r="L40" s="37"/>
       <c r="M40" s="37"/>
-      <c r="N40" s="36"/>
+      <c r="N40" s="37"/>
       <c r="O40" s="36"/>
       <c r="P40" s="36"/>
-    </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q40" s="36"/>
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="52"/>
       <c r="I41" s="37"/>
       <c r="J41" s="37"/>
       <c r="K41" s="37"/>
       <c r="L41" s="37"/>
       <c r="M41" s="37"/>
-      <c r="N41" s="36"/>
+      <c r="N41" s="37"/>
       <c r="O41" s="36"/>
       <c r="P41" s="36"/>
-    </row>
-    <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q41" s="36"/>
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="52"/>
       <c r="I42" s="37"/>
       <c r="J42" s="37"/>
       <c r="K42" s="37"/>
       <c r="L42" s="37"/>
       <c r="M42" s="37"/>
-      <c r="N42" s="36"/>
+      <c r="N42" s="37"/>
       <c r="O42" s="36"/>
       <c r="P42" s="36"/>
-    </row>
-    <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q42" s="36"/>
+    </row>
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="52"/>
       <c r="I43" s="37"/>
       <c r="J43" s="37"/>
       <c r="K43" s="37"/>
       <c r="L43" s="37"/>
       <c r="M43" s="37"/>
-      <c r="N43" s="36"/>
+      <c r="N43" s="37"/>
       <c r="O43" s="36"/>
       <c r="P43" s="36"/>
-    </row>
-    <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q43" s="36"/>
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="52"/>
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
       <c r="M44" s="37"/>
-      <c r="N44" s="36"/>
+      <c r="N44" s="37"/>
       <c r="O44" s="36"/>
       <c r="P44" s="36"/>
-    </row>
-    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q44" s="36"/>
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="52"/>
       <c r="I45" s="37"/>
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
       <c r="M45" s="37"/>
-      <c r="N45" s="36"/>
+      <c r="N45" s="37"/>
       <c r="O45" s="36"/>
       <c r="P45" s="36"/>
-    </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q45" s="36"/>
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
       <c r="D46" s="36"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="52"/>
       <c r="I46" s="37"/>
       <c r="J46" s="37"/>
       <c r="K46" s="37"/>
       <c r="L46" s="37"/>
       <c r="M46" s="37"/>
-      <c r="N46" s="36"/>
+      <c r="N46" s="37"/>
       <c r="O46" s="36"/>
       <c r="P46" s="36"/>
-    </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q46" s="36"/>
+    </row>
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="52"/>
       <c r="I47" s="37"/>
       <c r="J47" s="37"/>
       <c r="K47" s="37"/>
       <c r="L47" s="37"/>
       <c r="M47" s="37"/>
-      <c r="N47" s="36"/>
+      <c r="N47" s="37"/>
       <c r="O47" s="36"/>
       <c r="P47" s="36"/>
-    </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q47" s="36"/>
+    </row>
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="52"/>
       <c r="I48" s="37"/>
       <c r="J48" s="37"/>
       <c r="K48" s="37"/>
       <c r="L48" s="37"/>
       <c r="M48" s="37"/>
-      <c r="N48" s="36"/>
+      <c r="N48" s="37"/>
       <c r="O48" s="36"/>
       <c r="P48" s="36"/>
-    </row>
-    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q48" s="36"/>
+    </row>
+    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="52"/>
       <c r="I49" s="37"/>
       <c r="J49" s="37"/>
       <c r="K49" s="37"/>
       <c r="L49" s="37"/>
       <c r="M49" s="37"/>
-      <c r="N49" s="36"/>
+      <c r="N49" s="37"/>
       <c r="O49" s="36"/>
       <c r="P49" s="36"/>
-    </row>
-    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q49" s="36"/>
+    </row>
+    <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="52"/>
       <c r="I50" s="37"/>
       <c r="J50" s="37"/>
       <c r="K50" s="37"/>
       <c r="L50" s="37"/>
       <c r="M50" s="37"/>
-      <c r="N50" s="36"/>
+      <c r="N50" s="37"/>
       <c r="O50" s="36"/>
       <c r="P50" s="36"/>
-    </row>
-    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q50" s="36"/>
+    </row>
+    <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="52"/>
       <c r="I51" s="37"/>
       <c r="J51" s="37"/>
       <c r="K51" s="37"/>
       <c r="L51" s="37"/>
       <c r="M51" s="37"/>
-      <c r="N51" s="36"/>
+      <c r="N51" s="37"/>
       <c r="O51" s="36"/>
       <c r="P51" s="36"/>
-    </row>
-    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q51" s="36"/>
+    </row>
+    <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="52"/>
       <c r="I52" s="37"/>
       <c r="J52" s="37"/>
       <c r="K52" s="37"/>
       <c r="L52" s="37"/>
       <c r="M52" s="37"/>
-      <c r="N52" s="36"/>
+      <c r="N52" s="37"/>
       <c r="O52" s="36"/>
       <c r="P52" s="36"/>
-    </row>
-    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q52" s="36"/>
+    </row>
+    <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="52"/>
       <c r="I53" s="37"/>
       <c r="J53" s="37"/>
       <c r="K53" s="37"/>
       <c r="L53" s="37"/>
       <c r="M53" s="37"/>
-      <c r="N53" s="36"/>
+      <c r="N53" s="37"/>
       <c r="O53" s="36"/>
       <c r="P53" s="36"/>
-    </row>
-    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q53" s="36"/>
+    </row>
+    <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="52"/>
       <c r="I54" s="37"/>
       <c r="J54" s="37"/>
       <c r="K54" s="37"/>
       <c r="L54" s="37"/>
       <c r="M54" s="37"/>
-      <c r="N54" s="36"/>
+      <c r="N54" s="37"/>
       <c r="O54" s="36"/>
       <c r="P54" s="36"/>
-    </row>
-    <row r="55" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P55" s="20"/>
-    </row>
-    <row r="56" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P56" s="32"/>
+      <c r="Q54" s="36"/>
+    </row>
+    <row r="55" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q55" s="20"/>
+    </row>
+    <row r="56" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q56" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="170">
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="O24:Q24"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:G29"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:G30"/>
     <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:G27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:G28"/>
     <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:G31"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O30:Q30"/>
     <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:G33"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:G36"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="O37:Q37"/>
     <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:G38"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:G39"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
     <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:G41"/>
     <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:G42"/>
     <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
     <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:G44"/>
     <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:G45"/>
     <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="O45:Q45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E46:H46"/>
     <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:G47"/>
     <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E48:G48"/>
     <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
     <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E50:G50"/>
     <mergeCell ref="A51:D51"/>
-    <mergeCell ref="E51:G51"/>
     <mergeCell ref="A52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
     <mergeCell ref="A53:D53"/>
-    <mergeCell ref="E53:G53"/>
     <mergeCell ref="A54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="H8:O11"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="I8:P11"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:G25"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:G24"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C16:D16"/>
@@ -1959,9 +2057,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P56"/>
+  <dimension ref="A2:Q56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1971,1172 +2071,1222 @@
     <col min="4" max="4" width="6.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="1.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="0.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
+    <row r="2" spans="1:17" ht="3.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:17" ht="3.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:17" ht="3.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M5" s="3"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="38"/>
       <c r="J6" s="38"/>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="38"/>
+      <c r="L6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="38"/>
       <c r="M6" s="38"/>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="38"/>
+      <c r="O6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="38"/>
       <c r="P6" s="38"/>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q6" s="38"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52"/>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
       <c r="L7" s="37"/>
       <c r="M7" s="37"/>
-      <c r="N7" s="36"/>
+      <c r="N7" s="37"/>
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q7" s="36"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52"/>
       <c r="I8" s="37"/>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
       <c r="M8" s="37"/>
-      <c r="N8" s="36"/>
+      <c r="N8" s="37"/>
       <c r="O8" s="36"/>
       <c r="P8" s="36"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q8" s="36"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
-      <c r="N9" s="36"/>
+      <c r="N9" s="37"/>
       <c r="O9" s="36"/>
       <c r="P9" s="36"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q9" s="36"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
       <c r="L10" s="37"/>
       <c r="M10" s="37"/>
-      <c r="N10" s="36"/>
+      <c r="N10" s="37"/>
       <c r="O10" s="36"/>
       <c r="P10" s="36"/>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q10" s="36"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
       <c r="L11" s="37"/>
       <c r="M11" s="37"/>
-      <c r="N11" s="36"/>
+      <c r="N11" s="37"/>
       <c r="O11" s="36"/>
       <c r="P11" s="36"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q11" s="36"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
       <c r="I12" s="37"/>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
-      <c r="N12" s="36"/>
+      <c r="N12" s="37"/>
       <c r="O12" s="36"/>
       <c r="P12" s="36"/>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q12" s="36"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
-      <c r="N13" s="36"/>
+      <c r="N13" s="37"/>
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q13" s="36"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
       <c r="I14" s="37"/>
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
-      <c r="N14" s="36"/>
+      <c r="N14" s="37"/>
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
-    </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q14" s="36"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
       <c r="I15" s="37"/>
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
-      <c r="N15" s="36"/>
+      <c r="N15" s="37"/>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q15" s="36"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
       <c r="I16" s="37"/>
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
       <c r="M16" s="37"/>
-      <c r="N16" s="36"/>
+      <c r="N16" s="37"/>
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q16" s="36"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
       <c r="I17" s="37"/>
       <c r="J17" s="37"/>
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
       <c r="M17" s="37"/>
-      <c r="N17" s="36"/>
+      <c r="N17" s="37"/>
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q17" s="36"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
       <c r="I18" s="37"/>
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
       <c r="M18" s="37"/>
-      <c r="N18" s="36"/>
+      <c r="N18" s="37"/>
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
-    </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q18" s="36"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
       <c r="I19" s="37"/>
       <c r="J19" s="37"/>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
-      <c r="N19" s="36"/>
+      <c r="N19" s="37"/>
       <c r="O19" s="36"/>
       <c r="P19" s="36"/>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q19" s="36"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
       <c r="I20" s="37"/>
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
-      <c r="N20" s="36"/>
+      <c r="N20" s="37"/>
       <c r="O20" s="36"/>
       <c r="P20" s="36"/>
-    </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q20" s="36"/>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="52"/>
       <c r="I21" s="37"/>
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
-      <c r="N21" s="36"/>
+      <c r="N21" s="37"/>
       <c r="O21" s="36"/>
       <c r="P21" s="36"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q21" s="36"/>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="52"/>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
-      <c r="N22" s="36"/>
+      <c r="N22" s="37"/>
       <c r="O22" s="36"/>
       <c r="P22" s="36"/>
-    </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q22" s="36"/>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
-      <c r="N23" s="36"/>
+      <c r="N23" s="37"/>
       <c r="O23" s="36"/>
       <c r="P23" s="36"/>
-    </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q23" s="36"/>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
       <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
-      <c r="N24" s="36"/>
+      <c r="N24" s="37"/>
       <c r="O24" s="36"/>
       <c r="P24" s="36"/>
-    </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q24" s="36"/>
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
-      <c r="N25" s="36"/>
+      <c r="N25" s="37"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
-    </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q25" s="36"/>
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52"/>
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
-      <c r="N26" s="36"/>
+      <c r="N26" s="37"/>
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
-    </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q26" s="36"/>
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="52"/>
       <c r="I27" s="37"/>
       <c r="J27" s="37"/>
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
-      <c r="N27" s="36"/>
+      <c r="N27" s="37"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
-    </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q27" s="36"/>
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
-      <c r="N28" s="36"/>
+      <c r="N28" s="37"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
-    </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q28" s="36"/>
+    </row>
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="37"/>
       <c r="J29" s="37"/>
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
       <c r="M29" s="37"/>
-      <c r="N29" s="36"/>
+      <c r="N29" s="37"/>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
-    </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q29" s="36"/>
+    </row>
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="52"/>
       <c r="I30" s="37"/>
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
       <c r="M30" s="37"/>
-      <c r="N30" s="36"/>
+      <c r="N30" s="37"/>
       <c r="O30" s="36"/>
       <c r="P30" s="36"/>
-    </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q30" s="36"/>
+    </row>
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="52"/>
       <c r="I31" s="37"/>
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
       <c r="M31" s="37"/>
-      <c r="N31" s="36"/>
+      <c r="N31" s="37"/>
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
-    </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q31" s="36"/>
+    </row>
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="52"/>
       <c r="I32" s="37"/>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
       <c r="M32" s="37"/>
-      <c r="N32" s="36"/>
+      <c r="N32" s="37"/>
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
-    </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q32" s="36"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="52"/>
       <c r="I33" s="37"/>
       <c r="J33" s="37"/>
       <c r="K33" s="37"/>
       <c r="L33" s="37"/>
       <c r="M33" s="37"/>
-      <c r="N33" s="36"/>
+      <c r="N33" s="37"/>
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
-    </row>
-    <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q33" s="36"/>
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="52"/>
       <c r="I34" s="37"/>
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
       <c r="M34" s="37"/>
-      <c r="N34" s="36"/>
+      <c r="N34" s="37"/>
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
-    </row>
-    <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q34" s="36"/>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="52"/>
       <c r="I35" s="37"/>
       <c r="J35" s="37"/>
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>
       <c r="M35" s="37"/>
-      <c r="N35" s="36"/>
+      <c r="N35" s="37"/>
       <c r="O35" s="36"/>
       <c r="P35" s="36"/>
-    </row>
-    <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q35" s="36"/>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="52"/>
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
       <c r="K36" s="37"/>
       <c r="L36" s="37"/>
       <c r="M36" s="37"/>
-      <c r="N36" s="36"/>
+      <c r="N36" s="37"/>
       <c r="O36" s="36"/>
       <c r="P36" s="36"/>
-    </row>
-    <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q36" s="36"/>
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="52"/>
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
       <c r="K37" s="37"/>
       <c r="L37" s="37"/>
       <c r="M37" s="37"/>
-      <c r="N37" s="36"/>
+      <c r="N37" s="37"/>
       <c r="O37" s="36"/>
       <c r="P37" s="36"/>
-    </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q37" s="36"/>
+    </row>
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="52"/>
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
       <c r="L38" s="37"/>
       <c r="M38" s="37"/>
-      <c r="N38" s="36"/>
+      <c r="N38" s="37"/>
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
-    </row>
-    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q38" s="36"/>
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="52"/>
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
       <c r="M39" s="37"/>
-      <c r="N39" s="36"/>
+      <c r="N39" s="37"/>
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
-    </row>
-    <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q39" s="36"/>
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="52"/>
       <c r="I40" s="37"/>
       <c r="J40" s="37"/>
       <c r="K40" s="37"/>
       <c r="L40" s="37"/>
       <c r="M40" s="37"/>
-      <c r="N40" s="36"/>
+      <c r="N40" s="37"/>
       <c r="O40" s="36"/>
       <c r="P40" s="36"/>
-    </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q40" s="36"/>
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="52"/>
       <c r="I41" s="37"/>
       <c r="J41" s="37"/>
       <c r="K41" s="37"/>
       <c r="L41" s="37"/>
       <c r="M41" s="37"/>
-      <c r="N41" s="36"/>
+      <c r="N41" s="37"/>
       <c r="O41" s="36"/>
       <c r="P41" s="36"/>
-    </row>
-    <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q41" s="36"/>
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="52"/>
       <c r="I42" s="37"/>
       <c r="J42" s="37"/>
       <c r="K42" s="37"/>
       <c r="L42" s="37"/>
       <c r="M42" s="37"/>
-      <c r="N42" s="36"/>
+      <c r="N42" s="37"/>
       <c r="O42" s="36"/>
       <c r="P42" s="36"/>
-    </row>
-    <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q42" s="36"/>
+    </row>
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="52"/>
       <c r="I43" s="37"/>
       <c r="J43" s="37"/>
       <c r="K43" s="37"/>
       <c r="L43" s="37"/>
       <c r="M43" s="37"/>
-      <c r="N43" s="36"/>
+      <c r="N43" s="37"/>
       <c r="O43" s="36"/>
       <c r="P43" s="36"/>
-    </row>
-    <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q43" s="36"/>
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="52"/>
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
       <c r="M44" s="37"/>
-      <c r="N44" s="36"/>
+      <c r="N44" s="37"/>
       <c r="O44" s="36"/>
       <c r="P44" s="36"/>
-    </row>
-    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q44" s="36"/>
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="52"/>
       <c r="I45" s="37"/>
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
       <c r="M45" s="37"/>
-      <c r="N45" s="36"/>
+      <c r="N45" s="37"/>
       <c r="O45" s="36"/>
       <c r="P45" s="36"/>
-    </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q45" s="36"/>
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
       <c r="D46" s="36"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="52"/>
       <c r="I46" s="37"/>
       <c r="J46" s="37"/>
       <c r="K46" s="37"/>
       <c r="L46" s="37"/>
       <c r="M46" s="37"/>
-      <c r="N46" s="36"/>
+      <c r="N46" s="37"/>
       <c r="O46" s="36"/>
       <c r="P46" s="36"/>
-    </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q46" s="36"/>
+    </row>
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="52"/>
       <c r="I47" s="37"/>
       <c r="J47" s="37"/>
       <c r="K47" s="37"/>
       <c r="L47" s="37"/>
       <c r="M47" s="37"/>
-      <c r="N47" s="36"/>
+      <c r="N47" s="37"/>
       <c r="O47" s="36"/>
       <c r="P47" s="36"/>
-    </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q47" s="36"/>
+    </row>
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="52"/>
       <c r="I48" s="37"/>
       <c r="J48" s="37"/>
       <c r="K48" s="37"/>
       <c r="L48" s="37"/>
       <c r="M48" s="37"/>
-      <c r="N48" s="36"/>
+      <c r="N48" s="37"/>
       <c r="O48" s="36"/>
       <c r="P48" s="36"/>
-    </row>
-    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q48" s="36"/>
+    </row>
+    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="52"/>
       <c r="I49" s="37"/>
       <c r="J49" s="37"/>
       <c r="K49" s="37"/>
       <c r="L49" s="37"/>
       <c r="M49" s="37"/>
-      <c r="N49" s="36"/>
+      <c r="N49" s="37"/>
       <c r="O49" s="36"/>
       <c r="P49" s="36"/>
-    </row>
-    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q49" s="36"/>
+    </row>
+    <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="52"/>
       <c r="I50" s="37"/>
       <c r="J50" s="37"/>
       <c r="K50" s="37"/>
       <c r="L50" s="37"/>
       <c r="M50" s="37"/>
-      <c r="N50" s="36"/>
+      <c r="N50" s="37"/>
       <c r="O50" s="36"/>
       <c r="P50" s="36"/>
-    </row>
-    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q50" s="36"/>
+    </row>
+    <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="52"/>
       <c r="I51" s="37"/>
       <c r="J51" s="37"/>
       <c r="K51" s="37"/>
       <c r="L51" s="37"/>
       <c r="M51" s="37"/>
-      <c r="N51" s="36"/>
+      <c r="N51" s="37"/>
       <c r="O51" s="36"/>
       <c r="P51" s="36"/>
-    </row>
-    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q51" s="36"/>
+    </row>
+    <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="52"/>
       <c r="I52" s="37"/>
       <c r="J52" s="37"/>
       <c r="K52" s="37"/>
       <c r="L52" s="37"/>
       <c r="M52" s="37"/>
-      <c r="N52" s="36"/>
+      <c r="N52" s="37"/>
       <c r="O52" s="36"/>
       <c r="P52" s="36"/>
-    </row>
-    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q52" s="36"/>
+    </row>
+    <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="52"/>
       <c r="I53" s="37"/>
       <c r="J53" s="37"/>
       <c r="K53" s="37"/>
       <c r="L53" s="37"/>
       <c r="M53" s="37"/>
-      <c r="N53" s="36"/>
+      <c r="N53" s="37"/>
       <c r="O53" s="36"/>
       <c r="P53" s="36"/>
-    </row>
-    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q53" s="36"/>
+    </row>
+    <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="52"/>
       <c r="I54" s="37"/>
       <c r="J54" s="37"/>
       <c r="K54" s="37"/>
       <c r="L54" s="37"/>
       <c r="M54" s="37"/>
-      <c r="N54" s="36"/>
+      <c r="N54" s="37"/>
       <c r="O54" s="36"/>
       <c r="P54" s="36"/>
-    </row>
-    <row r="55" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P55" s="20"/>
-    </row>
-    <row r="56" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P56" s="32"/>
+      <c r="Q54" s="36"/>
+    </row>
+    <row r="55" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q55" s="20"/>
+    </row>
+    <row r="56" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q56" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="245">
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
     <mergeCell ref="A53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="O53:Q53"/>
     <mergeCell ref="A54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
     <mergeCell ref="A51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="O51:Q51"/>
     <mergeCell ref="A52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
     <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="O49:Q49"/>
     <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
     <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="O47:Q47"/>
     <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
     <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="O45:Q45"/>
     <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E46:H46"/>
     <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="O43:Q43"/>
     <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="E44:H44"/>
     <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
     <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="O42:Q42"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="O39:Q39"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="O37:Q37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="O38:Q38"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:Q31"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O34:Q34"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="O32:Q32"/>
     <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:Q29"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
     <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:Q27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
     <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:Q25"/>
     <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
     <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:Q23"/>
     <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O20:Q20"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:Q21"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:Q6"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E6:H6"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:Q14"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="O36:Q36"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
     <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:Q35"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/KATO/Template/H0210_MitsumorishoPrint.xlsx
+++ b/KATO/Template/H0210_MitsumorishoPrint.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Visual Studio 2015\Projects\KATO\KATO\bin\Debug\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\suyama\00_project\KATO\KATO\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>見　　　積　　　書</t>
     <rPh sb="0" eb="1">
@@ -53,10 +53,6 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12345678901234567890123456789012345678</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -572,6 +568,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,13 +592,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -608,8 +604,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -623,20 +625,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,9 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -976,25 +970,25 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.15">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
     </row>
     <row r="5" spans="1:17" ht="12" x14ac:dyDescent="0.15">
       <c r="N5" s="3" t="s">
@@ -1006,58 +1000,56 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="23"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="22"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
     </row>
     <row r="9" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="18"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1069,114 +1061,114 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="44" t="s">
-        <v>5</v>
+      <c r="A12" s="40" t="s">
+        <v>4</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="31"/>
       <c r="D12" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="14"/>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+    </row>
+    <row r="13" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+      <c r="H13" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+    </row>
+    <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="14"/>
+      <c r="H14" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-    </row>
-    <row r="13" spans="1:17" ht="12" x14ac:dyDescent="0.15">
-      <c r="H13" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-    </row>
-    <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="14"/>
-      <c r="H14" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="H15" s="53" t="s">
-        <v>21</v>
+      <c r="H15" s="33" t="s">
+        <v>20</v>
       </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="36" t="s">
-        <v>6</v>
+      <c r="A16" s="38" t="s">
+        <v>5</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="24"/>
       <c r="F16" s="14"/>
     </row>
@@ -1200,12 +1192,12 @@
       <c r="Q17" s="14"/>
     </row>
     <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="37" t="s">
-        <v>7</v>
+      <c r="A18" s="39" t="s">
+        <v>6</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="28"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1235,12 +1227,12 @@
       <c r="Q19" s="14"/>
     </row>
     <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="36" t="s">
-        <v>10</v>
+      <c r="A20" s="38" t="s">
+        <v>9</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="24"/>
       <c r="F20" s="14"/>
       <c r="J20" s="10"/>
@@ -1264,7 +1256,7 @@
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="13"/>
@@ -1277,603 +1269,603 @@
     </row>
     <row r="23" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="49" t="s">
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="35" t="s">
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35" t="s">
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="41"/>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
       <c r="H25" s="43"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="41"/>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
       <c r="H26" s="43"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="41"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
       <c r="H27" s="43"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="41"/>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
       <c r="H28" s="43"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="41"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
       <c r="H29" s="43"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="41"/>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
       <c r="H30" s="43"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="41"/>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
       <c r="H31" s="43"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="41"/>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
       <c r="H32" s="43"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="41"/>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
       <c r="H33" s="43"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="41"/>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
       <c r="H34" s="43"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="41"/>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
       <c r="H35" s="43"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="41"/>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
       <c r="H36" s="43"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="41"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
       <c r="H37" s="43"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="41"/>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
       <c r="H38" s="43"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
     </row>
     <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="41"/>
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
       <c r="H39" s="43"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="41"/>
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
       <c r="H40" s="43"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="41"/>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
       <c r="H41" s="43"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="41"/>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
       <c r="H42" s="43"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="41"/>
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
       <c r="H43" s="43"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="41"/>
       <c r="F44" s="42"/>
       <c r="G44" s="42"/>
       <c r="H44" s="43"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="41"/>
       <c r="F45" s="42"/>
       <c r="G45" s="42"/>
       <c r="H45" s="43"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
       <c r="E46" s="41"/>
       <c r="F46" s="42"/>
       <c r="G46" s="42"/>
       <c r="H46" s="43"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="41"/>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
       <c r="H47" s="43"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
       <c r="E48" s="41"/>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
       <c r="H48" s="43"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
     </row>
     <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
       <c r="E49" s="41"/>
       <c r="F49" s="42"/>
       <c r="G49" s="42"/>
       <c r="H49" s="43"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
     </row>
     <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
       <c r="E50" s="41"/>
       <c r="F50" s="42"/>
       <c r="G50" s="42"/>
       <c r="H50" s="43"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
     </row>
     <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
       <c r="E51" s="41"/>
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
       <c r="H51" s="43"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
     </row>
     <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
       <c r="E52" s="41"/>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
       <c r="H52" s="43"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
     </row>
     <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
       <c r="E53" s="41"/>
       <c r="F53" s="42"/>
       <c r="G53" s="42"/>
       <c r="H53" s="43"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
     </row>
     <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
       <c r="E54" s="41"/>
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
       <c r="H54" s="43"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
     </row>
     <row r="55" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q55" s="20"/>
@@ -1883,17 +1875,22 @@
     </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
     <mergeCell ref="E31:H31"/>
     <mergeCell ref="E32:H32"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="L27:N27"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="I8:P11"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="O32:Q32"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A27:D27"/>
@@ -1908,20 +1905,12 @@
     <mergeCell ref="O29:Q29"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="L30:N30"/>
-    <mergeCell ref="I8:P11"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
     <mergeCell ref="E26:H26"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="O32:Q32"/>
     <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="I33:K33"/>
@@ -2053,6 +2042,9 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2099,945 +2091,945 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="49" t="s">
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="35" t="s">
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35" t="s">
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="41"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
       <c r="H7" s="43"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="41"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
       <c r="H8" s="43"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="41"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
       <c r="H9" s="43"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="41"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
       <c r="H10" s="43"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="41"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="41"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
       <c r="H12" s="43"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="41"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="43"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="41"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
       <c r="H14" s="43"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="41"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
       <c r="H15" s="43"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="41"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
       <c r="H16" s="43"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="41"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
       <c r="H17" s="43"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
       <c r="H18" s="43"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
       <c r="H19" s="43"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
       <c r="H20" s="43"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="41"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
       <c r="H21" s="43"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="41"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
       <c r="H22" s="43"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="41"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
       <c r="H23" s="43"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="41"/>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
       <c r="H24" s="43"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="41"/>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
       <c r="H25" s="43"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="41"/>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
       <c r="H26" s="43"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="41"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
       <c r="H27" s="43"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="41"/>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
       <c r="H28" s="43"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="41"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
       <c r="H29" s="43"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="41"/>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
       <c r="H30" s="43"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="41"/>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
       <c r="H31" s="43"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="41"/>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
       <c r="H32" s="43"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="41"/>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
       <c r="H33" s="43"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="41"/>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
       <c r="H34" s="43"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="41"/>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
       <c r="H35" s="43"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="41"/>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
       <c r="H36" s="43"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="41"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
       <c r="H37" s="43"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="41"/>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
       <c r="H38" s="43"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
     </row>
     <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="41"/>
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
       <c r="H39" s="43"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="41"/>
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
       <c r="H40" s="43"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="41"/>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
       <c r="H41" s="43"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="41"/>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
       <c r="H42" s="43"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="41"/>
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
       <c r="H43" s="43"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="41"/>
       <c r="F44" s="42"/>
       <c r="G44" s="42"/>
       <c r="H44" s="43"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="41"/>
       <c r="F45" s="42"/>
       <c r="G45" s="42"/>
       <c r="H45" s="43"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
       <c r="E46" s="41"/>
       <c r="F46" s="42"/>
       <c r="G46" s="42"/>
       <c r="H46" s="43"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="41"/>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
       <c r="H47" s="43"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
       <c r="E48" s="41"/>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
       <c r="H48" s="43"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
     </row>
     <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
       <c r="E49" s="41"/>
       <c r="F49" s="42"/>
       <c r="G49" s="42"/>
       <c r="H49" s="43"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
     </row>
     <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
       <c r="E50" s="41"/>
       <c r="F50" s="42"/>
       <c r="G50" s="42"/>
       <c r="H50" s="43"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
     </row>
     <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
       <c r="E51" s="41"/>
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
       <c r="H51" s="43"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
     </row>
     <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
       <c r="E52" s="41"/>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
       <c r="H52" s="43"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
     </row>
     <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
       <c r="E53" s="41"/>
       <c r="F53" s="42"/>
       <c r="G53" s="42"/>
       <c r="H53" s="43"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
     </row>
     <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
       <c r="E54" s="41"/>
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
       <c r="H54" s="43"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
     </row>
     <row r="55" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q55" s="20"/>

--- a/KATO/Template/H0210_MitsumorishoPrint.xlsx
+++ b/KATO/Template/H0210_MitsumorishoPrint.xlsx
@@ -595,6 +595,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -604,18 +613,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,10 +625,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,7 +940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1000,36 +1002,36 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="23"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="22"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="29" t="s">
@@ -1042,14 +1044,14 @@
       <c r="F9" s="18"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1061,27 +1063,27 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1127,8 +1129,8 @@
         <v>8</v>
       </c>
       <c r="B14" s="38"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="24"/>
       <c r="F14" s="14"/>
       <c r="H14" s="32" t="s">
@@ -1167,8 +1169,8 @@
         <v>5</v>
       </c>
       <c r="B16" s="38"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="24"/>
       <c r="F16" s="14"/>
     </row>
@@ -1196,8 +1198,8 @@
         <v>6</v>
       </c>
       <c r="B18" s="39"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="28"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1231,8 +1233,8 @@
         <v>9</v>
       </c>
       <c r="B20" s="38"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="24"/>
       <c r="F20" s="14"/>
       <c r="J20" s="10"/>
@@ -1275,12 +1277,12 @@
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
       <c r="I24" s="37" t="s">
         <v>12</v>
       </c>
@@ -1302,10 +1304,10 @@
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
       <c r="K25" s="36"/>
@@ -1321,10 +1323,10 @@
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
@@ -1340,10 +1342,10 @@
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
@@ -1359,10 +1361,10 @@
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
@@ -1378,10 +1380,10 @@
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
@@ -1397,10 +1399,10 @@
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
@@ -1416,10 +1418,10 @@
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="43"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="46"/>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
@@ -1435,10 +1437,10 @@
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
@@ -1454,10 +1456,10 @@
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
@@ -1473,10 +1475,10 @@
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
       <c r="K34" s="36"/>
@@ -1492,10 +1494,10 @@
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="43"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="46"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
@@ -1511,10 +1513,10 @@
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="43"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="46"/>
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
@@ -1530,10 +1532,10 @@
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="43"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="46"/>
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
       <c r="K37" s="36"/>
@@ -1549,10 +1551,10 @@
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="43"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="46"/>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
       <c r="K38" s="36"/>
@@ -1568,10 +1570,10 @@
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="43"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
       <c r="I39" s="36"/>
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
@@ -1587,10 +1589,10 @@
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="43"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="46"/>
       <c r="I40" s="36"/>
       <c r="J40" s="36"/>
       <c r="K40" s="36"/>
@@ -1606,10 +1608,10 @@
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="43"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="46"/>
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
@@ -1625,10 +1627,10 @@
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="43"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="46"/>
       <c r="I42" s="36"/>
       <c r="J42" s="36"/>
       <c r="K42" s="36"/>
@@ -1644,10 +1646,10 @@
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="43"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="46"/>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
       <c r="K43" s="36"/>
@@ -1663,10 +1665,10 @@
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="43"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="46"/>
       <c r="I44" s="36"/>
       <c r="J44" s="36"/>
       <c r="K44" s="36"/>
@@ -1682,10 +1684,10 @@
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="43"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="46"/>
       <c r="I45" s="36"/>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
@@ -1701,10 +1703,10 @@
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="43"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="46"/>
       <c r="I46" s="36"/>
       <c r="J46" s="36"/>
       <c r="K46" s="36"/>
@@ -1720,10 +1722,10 @@
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="43"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="46"/>
       <c r="I47" s="36"/>
       <c r="J47" s="36"/>
       <c r="K47" s="36"/>
@@ -1739,10 +1741,10 @@
       <c r="B48" s="35"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="43"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="46"/>
       <c r="I48" s="36"/>
       <c r="J48" s="36"/>
       <c r="K48" s="36"/>
@@ -1758,10 +1760,10 @@
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="43"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="46"/>
       <c r="I49" s="36"/>
       <c r="J49" s="36"/>
       <c r="K49" s="36"/>
@@ -1777,10 +1779,10 @@
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="43"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="46"/>
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
       <c r="K50" s="36"/>
@@ -1796,10 +1798,10 @@
       <c r="B51" s="35"/>
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="43"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="46"/>
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
       <c r="K51" s="36"/>
@@ -1815,10 +1817,10 @@
       <c r="B52" s="35"/>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="43"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="46"/>
       <c r="I52" s="36"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
@@ -1834,10 +1836,10 @@
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="43"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="46"/>
       <c r="I53" s="36"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
@@ -1853,10 +1855,10 @@
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="43"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="46"/>
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
@@ -2097,12 +2099,12 @@
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="37" t="s">
         <v>12</v>
       </c>
@@ -2124,10 +2126,10 @@
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
@@ -2143,10 +2145,10 @@
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
@@ -2162,10 +2164,10 @@
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
@@ -2181,10 +2183,10 @@
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
@@ -2200,10 +2202,10 @@
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
@@ -2219,10 +2221,10 @@
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
@@ -2238,10 +2240,10 @@
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
@@ -2257,10 +2259,10 @@
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
@@ -2276,10 +2278,10 @@
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
@@ -2295,10 +2297,10 @@
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
@@ -2314,10 +2316,10 @@
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
@@ -2333,10 +2335,10 @@
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
@@ -2352,10 +2354,10 @@
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
@@ -2371,10 +2373,10 @@
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
@@ -2390,10 +2392,10 @@
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
@@ -2409,10 +2411,10 @@
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
@@ -2428,10 +2430,10 @@
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
@@ -2447,10 +2449,10 @@
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
@@ -2466,10 +2468,10 @@
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
       <c r="K25" s="36"/>
@@ -2485,10 +2487,10 @@
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
@@ -2504,10 +2506,10 @@
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
@@ -2523,10 +2525,10 @@
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
@@ -2542,10 +2544,10 @@
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
@@ -2561,10 +2563,10 @@
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
@@ -2580,10 +2582,10 @@
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="43"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="46"/>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
@@ -2599,10 +2601,10 @@
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
@@ -2618,10 +2620,10 @@
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
@@ -2637,10 +2639,10 @@
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
       <c r="K34" s="36"/>
@@ -2656,10 +2658,10 @@
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="43"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="46"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
@@ -2675,10 +2677,10 @@
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="43"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="46"/>
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
@@ -2694,10 +2696,10 @@
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="43"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="46"/>
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
       <c r="K37" s="36"/>
@@ -2713,10 +2715,10 @@
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="43"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="46"/>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
       <c r="K38" s="36"/>
@@ -2732,10 +2734,10 @@
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="43"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
       <c r="I39" s="36"/>
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
@@ -2751,10 +2753,10 @@
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="43"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="46"/>
       <c r="I40" s="36"/>
       <c r="J40" s="36"/>
       <c r="K40" s="36"/>
@@ -2770,10 +2772,10 @@
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="43"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="46"/>
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
@@ -2789,10 +2791,10 @@
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="43"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="46"/>
       <c r="I42" s="36"/>
       <c r="J42" s="36"/>
       <c r="K42" s="36"/>
@@ -2808,10 +2810,10 @@
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="43"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="46"/>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
       <c r="K43" s="36"/>
@@ -2827,10 +2829,10 @@
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="43"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="46"/>
       <c r="I44" s="36"/>
       <c r="J44" s="36"/>
       <c r="K44" s="36"/>
@@ -2846,10 +2848,10 @@
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="43"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="46"/>
       <c r="I45" s="36"/>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
@@ -2865,10 +2867,10 @@
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="43"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="46"/>
       <c r="I46" s="36"/>
       <c r="J46" s="36"/>
       <c r="K46" s="36"/>
@@ -2884,10 +2886,10 @@
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="43"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="46"/>
       <c r="I47" s="36"/>
       <c r="J47" s="36"/>
       <c r="K47" s="36"/>
@@ -2903,10 +2905,10 @@
       <c r="B48" s="35"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="43"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="46"/>
       <c r="I48" s="36"/>
       <c r="J48" s="36"/>
       <c r="K48" s="36"/>
@@ -2922,10 +2924,10 @@
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="43"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="46"/>
       <c r="I49" s="36"/>
       <c r="J49" s="36"/>
       <c r="K49" s="36"/>
@@ -2941,10 +2943,10 @@
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="43"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="46"/>
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
       <c r="K50" s="36"/>
@@ -2960,10 +2962,10 @@
       <c r="B51" s="35"/>
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="43"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="46"/>
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
       <c r="K51" s="36"/>
@@ -2979,10 +2981,10 @@
       <c r="B52" s="35"/>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="43"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="46"/>
       <c r="I52" s="36"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
@@ -2998,10 +3000,10 @@
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="43"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="46"/>
       <c r="I53" s="36"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
@@ -3017,10 +3019,10 @@
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="43"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="46"/>
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>

--- a/KATO/Template/H0210_MitsumorishoPrint.xlsx
+++ b/KATO/Template/H0210_MitsumorishoPrint.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Template1" sheetId="4" r:id="rId1"/>
     <sheet name="Template2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -592,6 +592,15 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -613,6 +622,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,18 +633,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,7 +941,7 @@
   <dimension ref="A2:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1002,56 +1002,56 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="23"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="22"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
     </row>
     <row r="9" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="18"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1063,34 +1063,34 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="31"/>
       <c r="D12" s="21" t="s">
         <v>15</v>
@@ -1129,8 +1129,8 @@
         <v>8</v>
       </c>
       <c r="B14" s="38"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="24"/>
       <c r="F14" s="14"/>
       <c r="H14" s="32" t="s">
@@ -1169,8 +1169,8 @@
         <v>5</v>
       </c>
       <c r="B16" s="38"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="24"/>
       <c r="F16" s="14"/>
     </row>
@@ -1198,8 +1198,8 @@
         <v>6</v>
       </c>
       <c r="B18" s="39"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="28"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1233,8 +1233,8 @@
         <v>9</v>
       </c>
       <c r="B20" s="38"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="24"/>
       <c r="F20" s="14"/>
       <c r="J20" s="10"/>
@@ -1277,12 +1277,12 @@
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
       <c r="I24" s="37" t="s">
         <v>12</v>
       </c>
@@ -1304,10 +1304,10 @@
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
       <c r="K25" s="36"/>
@@ -1323,10 +1323,10 @@
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
@@ -1342,10 +1342,10 @@
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
@@ -1361,10 +1361,10 @@
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="49"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
@@ -1380,10 +1380,10 @@
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="49"/>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
@@ -1399,10 +1399,10 @@
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
@@ -1418,10 +1418,10 @@
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="46"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="49"/>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
@@ -1437,10 +1437,10 @@
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="46"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="49"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
@@ -1456,10 +1456,10 @@
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="49"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
@@ -1475,10 +1475,10 @@
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="46"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="49"/>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
       <c r="K34" s="36"/>
@@ -1494,10 +1494,10 @@
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="46"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="49"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
@@ -1513,10 +1513,10 @@
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="46"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="49"/>
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
@@ -1532,10 +1532,10 @@
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="46"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="49"/>
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
       <c r="K37" s="36"/>
@@ -1551,10 +1551,10 @@
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="46"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="49"/>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
       <c r="K38" s="36"/>
@@ -1570,10 +1570,10 @@
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="49"/>
       <c r="I39" s="36"/>
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
@@ -1589,10 +1589,10 @@
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="46"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="49"/>
       <c r="I40" s="36"/>
       <c r="J40" s="36"/>
       <c r="K40" s="36"/>
@@ -1608,10 +1608,10 @@
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="46"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="49"/>
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
@@ -1627,10 +1627,10 @@
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="46"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="36"/>
       <c r="J42" s="36"/>
       <c r="K42" s="36"/>
@@ -1646,10 +1646,10 @@
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="46"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="49"/>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
       <c r="K43" s="36"/>
@@ -1665,10 +1665,10 @@
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="46"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="49"/>
       <c r="I44" s="36"/>
       <c r="J44" s="36"/>
       <c r="K44" s="36"/>
@@ -1684,10 +1684,10 @@
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="46"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="49"/>
       <c r="I45" s="36"/>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
@@ -1703,10 +1703,10 @@
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="46"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="49"/>
       <c r="I46" s="36"/>
       <c r="J46" s="36"/>
       <c r="K46" s="36"/>
@@ -1722,10 +1722,10 @@
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="46"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="49"/>
       <c r="I47" s="36"/>
       <c r="J47" s="36"/>
       <c r="K47" s="36"/>
@@ -1741,10 +1741,10 @@
       <c r="B48" s="35"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="46"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="49"/>
       <c r="I48" s="36"/>
       <c r="J48" s="36"/>
       <c r="K48" s="36"/>
@@ -1760,10 +1760,10 @@
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="46"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="49"/>
       <c r="I49" s="36"/>
       <c r="J49" s="36"/>
       <c r="K49" s="36"/>
@@ -1779,10 +1779,10 @@
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="46"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="49"/>
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
       <c r="K50" s="36"/>
@@ -1798,10 +1798,10 @@
       <c r="B51" s="35"/>
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="46"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="49"/>
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
       <c r="K51" s="36"/>
@@ -1817,10 +1817,10 @@
       <c r="B52" s="35"/>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="46"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="49"/>
       <c r="I52" s="36"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
@@ -1836,10 +1836,10 @@
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="46"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="49"/>
       <c r="I53" s="36"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
@@ -1855,10 +1855,10 @@
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="46"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="49"/>
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
@@ -2049,7 +2049,7 @@
     <mergeCell ref="E25:H25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.31496062992125984" right="7.874015748031496E-2" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -2099,12 +2099,12 @@
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="37" t="s">
         <v>12</v>
       </c>
@@ -2126,10 +2126,10 @@
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
@@ -2145,10 +2145,10 @@
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="49"/>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
@@ -2164,10 +2164,10 @@
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="49"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
@@ -2183,10 +2183,10 @@
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="49"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
@@ -2202,10 +2202,10 @@
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
@@ -2221,10 +2221,10 @@
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
@@ -2240,10 +2240,10 @@
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
@@ -2259,10 +2259,10 @@
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
@@ -2278,10 +2278,10 @@
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
@@ -2297,10 +2297,10 @@
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="49"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
@@ -2316,10 +2316,10 @@
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
@@ -2335,10 +2335,10 @@
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
@@ -2354,10 +2354,10 @@
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
@@ -2373,10 +2373,10 @@
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="49"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
@@ -2392,10 +2392,10 @@
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
@@ -2411,10 +2411,10 @@
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="49"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
@@ -2430,10 +2430,10 @@
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
@@ -2449,10 +2449,10 @@
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
@@ -2468,10 +2468,10 @@
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
       <c r="K25" s="36"/>
@@ -2487,10 +2487,10 @@
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
@@ -2506,10 +2506,10 @@
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
@@ -2525,10 +2525,10 @@
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="49"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
@@ -2544,10 +2544,10 @@
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="49"/>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
@@ -2563,10 +2563,10 @@
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
@@ -2582,10 +2582,10 @@
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="46"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="49"/>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
@@ -2601,10 +2601,10 @@
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="46"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="49"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
@@ -2620,10 +2620,10 @@
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="49"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
@@ -2639,10 +2639,10 @@
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="46"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="49"/>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
       <c r="K34" s="36"/>
@@ -2658,10 +2658,10 @@
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="46"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="49"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
@@ -2677,10 +2677,10 @@
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="46"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="49"/>
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
@@ -2696,10 +2696,10 @@
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="46"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="49"/>
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
       <c r="K37" s="36"/>
@@ -2715,10 +2715,10 @@
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="46"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="49"/>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
       <c r="K38" s="36"/>
@@ -2734,10 +2734,10 @@
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="49"/>
       <c r="I39" s="36"/>
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
@@ -2753,10 +2753,10 @@
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="46"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="49"/>
       <c r="I40" s="36"/>
       <c r="J40" s="36"/>
       <c r="K40" s="36"/>
@@ -2772,10 +2772,10 @@
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="46"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="49"/>
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
@@ -2791,10 +2791,10 @@
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="46"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="36"/>
       <c r="J42" s="36"/>
       <c r="K42" s="36"/>
@@ -2810,10 +2810,10 @@
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="46"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="49"/>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
       <c r="K43" s="36"/>
@@ -2829,10 +2829,10 @@
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="46"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="49"/>
       <c r="I44" s="36"/>
       <c r="J44" s="36"/>
       <c r="K44" s="36"/>
@@ -2848,10 +2848,10 @@
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="46"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="49"/>
       <c r="I45" s="36"/>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
@@ -2867,10 +2867,10 @@
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="46"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="49"/>
       <c r="I46" s="36"/>
       <c r="J46" s="36"/>
       <c r="K46" s="36"/>
@@ -2886,10 +2886,10 @@
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="46"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="49"/>
       <c r="I47" s="36"/>
       <c r="J47" s="36"/>
       <c r="K47" s="36"/>
@@ -2905,10 +2905,10 @@
       <c r="B48" s="35"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="46"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="49"/>
       <c r="I48" s="36"/>
       <c r="J48" s="36"/>
       <c r="K48" s="36"/>
@@ -2924,10 +2924,10 @@
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="46"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="49"/>
       <c r="I49" s="36"/>
       <c r="J49" s="36"/>
       <c r="K49" s="36"/>
@@ -2943,10 +2943,10 @@
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="46"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="49"/>
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
       <c r="K50" s="36"/>
@@ -2962,10 +2962,10 @@
       <c r="B51" s="35"/>
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="46"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="49"/>
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
       <c r="K51" s="36"/>
@@ -2981,10 +2981,10 @@
       <c r="B52" s="35"/>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="46"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="49"/>
       <c r="I52" s="36"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
@@ -3000,10 +3000,10 @@
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="46"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="49"/>
       <c r="I53" s="36"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
@@ -3019,10 +3019,10 @@
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="46"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="49"/>
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
